--- a/data/xlsx/bolsters.xlsx
+++ b/data/xlsx/bolsters.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="174">
   <si>
     <t>id</t>
   </si>
@@ -20,7 +20,7 @@
     <t>info</t>
   </si>
   <si>
-    <t>desc</t>
+    <t>description</t>
   </si>
   <si>
     <t>max_held</t>
@@ -509,6 +509,9 @@
   </si>
   <si>
     <t>Column 1</t>
+  </si>
+  <si>
+    <t>desc</t>
   </si>
   <si>
     <t>Sacred Tear</t>
@@ -2255,12 +2258,12 @@
         <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>2</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>7</v>
@@ -2275,7 +2278,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>8</v>
@@ -2283,7 +2286,7 @@
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>10</v>
@@ -2298,7 +2301,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>11</v>
@@ -2306,7 +2309,7 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>13</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>16</v>
@@ -2352,7 +2355,7 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>19</v>
@@ -2375,7 +2378,7 @@
     </row>
     <row r="7">
       <c r="A7" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>22</v>
@@ -2398,7 +2401,7 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>25</v>
@@ -2421,7 +2424,7 @@
     </row>
     <row r="9">
       <c r="A9" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>28</v>
@@ -2444,7 +2447,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>31</v>
@@ -2467,7 +2470,7 @@
     </row>
     <row r="11">
       <c r="A11" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>34</v>
@@ -2490,7 +2493,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>37</v>
@@ -2513,7 +2516,7 @@
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>40</v>
@@ -2536,7 +2539,7 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>43</v>
@@ -2559,7 +2562,7 @@
     </row>
     <row r="15">
       <c r="A15" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>46</v>
@@ -2582,7 +2585,7 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>49</v>
@@ -2605,7 +2608,7 @@
     </row>
     <row r="17">
       <c r="A17" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>52</v>
@@ -2628,7 +2631,7 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>55</v>
@@ -2651,7 +2654,7 @@
     </row>
     <row r="19">
       <c r="A19" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>58</v>
@@ -2674,7 +2677,7 @@
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>61</v>
@@ -2697,7 +2700,7 @@
     </row>
     <row r="21">
       <c r="A21" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>64</v>
@@ -2720,7 +2723,7 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>67</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="23">
       <c r="A23" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>70</v>
@@ -2766,7 +2769,7 @@
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>73</v>
@@ -2789,7 +2792,7 @@
     </row>
     <row r="25">
       <c r="A25" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>76</v>
@@ -2812,7 +2815,7 @@
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>79</v>
@@ -2835,7 +2838,7 @@
     </row>
     <row r="27">
       <c r="A27" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>82</v>
@@ -2858,7 +2861,7 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>85</v>
@@ -2881,7 +2884,7 @@
     </row>
     <row r="29">
       <c r="A29" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>88</v>
@@ -2904,7 +2907,7 @@
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>91</v>
@@ -2927,7 +2930,7 @@
     </row>
     <row r="31">
       <c r="A31" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>94</v>
@@ -2950,7 +2953,7 @@
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>97</v>
@@ -2973,7 +2976,7 @@
     </row>
     <row r="33">
       <c r="A33" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>100</v>
@@ -2996,7 +2999,7 @@
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>103</v>
@@ -3019,7 +3022,7 @@
     </row>
     <row r="35">
       <c r="A35" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>106</v>
@@ -3042,7 +3045,7 @@
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>109</v>
@@ -3065,7 +3068,7 @@
     </row>
     <row r="37">
       <c r="A37" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>112</v>
@@ -3088,7 +3091,7 @@
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>115</v>
@@ -3111,7 +3114,7 @@
     </row>
     <row r="39">
       <c r="A39" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>118</v>
@@ -3134,7 +3137,7 @@
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>121</v>
@@ -3157,7 +3160,7 @@
     </row>
     <row r="41">
       <c r="A41" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>124</v>
@@ -3180,7 +3183,7 @@
     </row>
     <row r="42">
       <c r="A42" s="17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>127</v>
